--- a/is cedveli.xlsx
+++ b/is cedveli.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utpmy-my.sharepoint.com/personal/shahbalayev_18003701_utp_edu_my/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utpmy-my.sharepoint.com/personal/shahbalayev_18003701_utp_edu_my/Documents/Kurslar/UpData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDE9F7A-AB1C-41F3-BE1C-AB284A9E4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{7BDE9F7A-AB1C-41F3-BE1C-AB284A9E4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79631C26-8BAB-4D1B-8AB0-A36AA13F2B1B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C73B9CAF-3575-4177-9BB0-567108472FDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C73B9CAF-3575-4177-9BB0-567108472FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ITfactory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Weekday</t>
   </si>
@@ -77,7 +78,10 @@
     <t>12 pm - 2 pm</t>
   </si>
   <si>
-    <t>6.30 pm - 8.30 pm</t>
+    <t>11 am - 2 pm</t>
+  </si>
+  <si>
+    <t>7 pm - 9 pm</t>
   </si>
 </sst>
 </file>
@@ -311,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,37 +323,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,150 +675,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1991BD55-6A8E-48EE-A1FF-D2D0603E11D7}">
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7"/>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -826,4 +837,171 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B836B7-284B-4115-A3D2-652854722CB8}">
+  <dimension ref="B1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>